--- a/Regional Indices.xlsx
+++ b/Regional Indices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="13" r:id="rId1"/>
@@ -27,14 +27,15 @@
     <sheet name="Canada" sheetId="22" r:id="rId18"/>
     <sheet name="Australia" sheetId="23" r:id="rId19"/>
     <sheet name="XCCY" sheetId="24" r:id="rId20"/>
-    <sheet name="Test" sheetId="25" r:id="rId21"/>
+    <sheet name="Bonds" sheetId="25" r:id="rId21"/>
+    <sheet name="10Y" sheetId="28" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="579">
   <si>
     <t>Nifty FMCG</t>
   </si>
@@ -1479,10 +1480,298 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Nifty GS 10Yr</t>
+  </si>
+  <si>
+    <t>Nifty GS 11 15Yr</t>
+  </si>
+  <si>
+    <t>Nifty GS 15YrPlus</t>
+  </si>
+  <si>
+    <t>Nifty GS 4 8Yr</t>
+  </si>
+  <si>
+    <t>Nifty GS 8 13Yr</t>
+  </si>
+  <si>
+    <t>Nifty GS Compsite</t>
+  </si>
+  <si>
+    <t>TR US 10 Year Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR US 7 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR US 5 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR US 30 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR US 3 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR US 2 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>SSE 5 year China T Note</t>
+  </si>
+  <si>
+    <t>SSE Enterprise Bond</t>
+  </si>
+  <si>
+    <t>SSE Credit Bond 100</t>
+  </si>
+  <si>
+    <t>SSE CB 30</t>
+  </si>
+  <si>
+    <t>Shanghai SE Corporate Bond</t>
+  </si>
+  <si>
+    <t>Shanghai SE Treasury Bond</t>
+  </si>
+  <si>
+    <t>SSE 5-Year Credit Bond</t>
+  </si>
+  <si>
+    <t>TR Germany 30 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Germany 20 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Germany 10 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Germany 7 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Germany 5 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Germany 2 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Germany 3 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Italy 3 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Italy 10 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Italy 2 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Italy 5 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Italy 15 Year Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Italy 30 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Italy 7 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Greece 10 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Greece 15 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Greece 5 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Greece 3 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Greece 2 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR France 2 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR France 3 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR France 5 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR France 7 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR France 10 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR France 30 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR France 20 Year Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR France 15 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR New Zealand 5 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR New Zealand 3 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR New Zealand 7 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR New Zealand 10 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Australia 10 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Australia 2 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Australia 7 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Australia 3 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Australia 5 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Canada 10 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Canada 2 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Canada 20 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Canada 3 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Canada 30 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Canada 5 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Canada 7 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR UK 10 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR UK 15 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR UK 2 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR UK 20 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR UK 3 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR UK 30 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR UK 5 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR UK 7 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Spain 10 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Spain 15 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Spain 2 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Spain 3 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Spain 30 Year Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Spain 5 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Spain 7 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR South Africa 10 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR South Africa 3 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR South Africa 30 Year Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR South Africa 5 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR South Africa 7 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Portugal 10 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Portugal 2 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Portugal 3 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Portugal 5 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Portugal 7 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>Bonds</t>
+  </si>
+  <si>
+    <t>TR Japan 10 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Japan 15 Year Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Japan 2 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Japan 20 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Japan 3 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Japan 30 Year Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Japan 5 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>TR Japan 7 Years Government Benchmark</t>
+  </si>
+  <si>
+    <t>10Y</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +2115,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2052,7 +2343,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,7 +2354,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,7 +2365,7 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2085,7 +2376,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,7 +2387,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2107,7 +2398,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2118,7 +2409,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2129,7 +2420,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,7 +2431,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2151,7 +2442,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,7 +2453,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,7 +2464,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,7 +2475,7 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2195,7 +2486,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,7 +2497,7 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2217,7 +2508,7 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2228,7 +2519,7 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,7 +2530,7 @@
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,7 +2541,7 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,7 +2552,7 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,7 +2563,7 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,7 +2574,7 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,7 +2585,7 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2305,7 +2596,7 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,7 +2607,7 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2327,7 +2618,7 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,7 +2629,7 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,7 +2640,7 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,7 +2651,7 @@
         <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,7 +2662,7 @@
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,7 +2673,7 @@
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6932,7 +7223,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,80 +7406,104 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>275</v>
       </c>
       <c r="B1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>276</v>
       </c>
       <c r="B2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>280</v>
       </c>
       <c r="B5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>281</v>
       </c>
       <c r="B6" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>282</v>
       </c>
       <c r="B7" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>283</v>
       </c>
       <c r="B8" t="s">
         <v>275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -7201,7 +7516,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8159,9 +8474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A2:B52"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8592,22 +8905,20 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>481</v>
+        <v>569</v>
       </c>
       <c r="B1" t="s">
         <v>223</v>
@@ -8618,7 +8929,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>482</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -8628,58 +8939,1220 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>434</v>
+      <c r="A3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>484</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>485</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
+      <c r="C8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>494</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>495</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>496</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>497</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>498</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>499</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>501</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>502</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>503</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>504</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>505</v>
+      </c>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>507</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>506</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>508</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>509</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>510</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>511</v>
+      </c>
+      <c r="B31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>512</v>
+      </c>
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>513</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>514</v>
+      </c>
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>515</v>
+      </c>
+      <c r="B35" t="s">
+        <v>422</v>
+      </c>
+      <c r="C35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>516</v>
+      </c>
+      <c r="B36" t="s">
+        <v>422</v>
+      </c>
+      <c r="C36" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>517</v>
+      </c>
+      <c r="B37" t="s">
+        <v>422</v>
+      </c>
+      <c r="C37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>518</v>
+      </c>
+      <c r="B38" t="s">
+        <v>422</v>
+      </c>
+      <c r="C38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>519</v>
+      </c>
+      <c r="B39" t="s">
+        <v>422</v>
+      </c>
+      <c r="C39" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>520</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>521</v>
+      </c>
+      <c r="B41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>522</v>
+      </c>
+      <c r="B42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>523</v>
+      </c>
+      <c r="B43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>524</v>
+      </c>
+      <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>525</v>
+      </c>
+      <c r="B45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>526</v>
+      </c>
+      <c r="B46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>527</v>
+      </c>
+      <c r="B47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>528</v>
+      </c>
+      <c r="B48" t="s">
+        <v>390</v>
+      </c>
+      <c r="C48" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>529</v>
+      </c>
+      <c r="B49" t="s">
+        <v>390</v>
+      </c>
+      <c r="C49" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>530</v>
+      </c>
+      <c r="B50" t="s">
+        <v>390</v>
+      </c>
+      <c r="C50" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>531</v>
+      </c>
+      <c r="B51" t="s">
+        <v>390</v>
+      </c>
+      <c r="C51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>532</v>
+      </c>
+      <c r="B52" t="s">
+        <v>354</v>
+      </c>
+      <c r="C52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>533</v>
+      </c>
+      <c r="B53" t="s">
+        <v>354</v>
+      </c>
+      <c r="C53" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>534</v>
+      </c>
+      <c r="B54" t="s">
+        <v>354</v>
+      </c>
+      <c r="C54" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>535</v>
+      </c>
+      <c r="B55" t="s">
+        <v>354</v>
+      </c>
+      <c r="C55" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>536</v>
+      </c>
+      <c r="B56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C56" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>537</v>
+      </c>
+      <c r="B57" t="s">
+        <v>353</v>
+      </c>
+      <c r="C57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>538</v>
+      </c>
+      <c r="B58" t="s">
+        <v>353</v>
+      </c>
+      <c r="C58" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>539</v>
+      </c>
+      <c r="B59" t="s">
+        <v>353</v>
+      </c>
+      <c r="C59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>540</v>
+      </c>
+      <c r="B60" t="s">
+        <v>353</v>
+      </c>
+      <c r="C60" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>541</v>
+      </c>
+      <c r="B61" t="s">
+        <v>353</v>
+      </c>
+      <c r="C61" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>542</v>
+      </c>
+      <c r="B62" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>543</v>
+      </c>
+      <c r="B63" t="s">
+        <v>353</v>
+      </c>
+      <c r="C63" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>544</v>
+      </c>
+      <c r="B64" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>545</v>
+      </c>
+      <c r="B65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>546</v>
+      </c>
+      <c r="B66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>547</v>
+      </c>
+      <c r="B67" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>548</v>
+      </c>
+      <c r="B68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>549</v>
+      </c>
+      <c r="B69" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>550</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>551</v>
+      </c>
+      <c r="B71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>552</v>
+      </c>
+      <c r="B72" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>553</v>
+      </c>
+      <c r="B73" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>554</v>
+      </c>
+      <c r="B74" t="s">
+        <v>272</v>
+      </c>
+      <c r="C74" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>556</v>
+      </c>
+      <c r="B76" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>557</v>
+      </c>
+      <c r="B77" t="s">
+        <v>272</v>
+      </c>
+      <c r="C77" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>558</v>
+      </c>
+      <c r="B78" t="s">
+        <v>272</v>
+      </c>
+      <c r="C78" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>559</v>
+      </c>
+      <c r="B79" t="s">
+        <v>436</v>
+      </c>
+      <c r="C79" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>560</v>
+      </c>
+      <c r="B80" t="s">
+        <v>436</v>
+      </c>
+      <c r="C80" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>561</v>
+      </c>
+      <c r="B81" t="s">
+        <v>436</v>
+      </c>
+      <c r="C81" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>562</v>
+      </c>
+      <c r="B82" t="s">
+        <v>436</v>
+      </c>
+      <c r="C82" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>563</v>
+      </c>
+      <c r="B83" t="s">
+        <v>436</v>
+      </c>
+      <c r="C83" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>564</v>
+      </c>
+      <c r="B84" t="s">
+        <v>374</v>
+      </c>
+      <c r="C84" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>565</v>
+      </c>
+      <c r="B85" t="s">
+        <v>374</v>
+      </c>
+      <c r="C85" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>566</v>
+      </c>
+      <c r="B86" t="s">
+        <v>374</v>
+      </c>
+      <c r="C86" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>567</v>
+      </c>
+      <c r="B87" t="s">
+        <v>374</v>
+      </c>
+      <c r="C87" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>568</v>
+      </c>
+      <c r="B88" t="s">
+        <v>374</v>
+      </c>
+      <c r="C88" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>570</v>
+      </c>
+      <c r="B89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>571</v>
+      </c>
+      <c r="B90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>572</v>
+      </c>
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>573</v>
+      </c>
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>574</v>
+      </c>
+      <c r="B93" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>575</v>
+      </c>
+      <c r="B94" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>576</v>
+      </c>
+      <c r="B95" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>577</v>
+      </c>
+      <c r="B96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
       <c r="C5" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>408</v>
+      <c r="A6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" t="s">
+        <v>422</v>
       </c>
       <c r="C6" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>410</v>
+      <c r="A7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>468</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>552</v>
+      </c>
+      <c r="B12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>570</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/Regional Indices.xlsx
+++ b/Regional Indices.xlsx
@@ -4,38 +4,39 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="13" r:id="rId1"/>
-    <sheet name="India" sheetId="1" r:id="rId2"/>
-    <sheet name="United States" sheetId="2" r:id="rId3"/>
-    <sheet name="China" sheetId="6" r:id="rId4"/>
-    <sheet name="Japan" sheetId="4" r:id="rId5"/>
-    <sheet name="Germany" sheetId="7" r:id="rId6"/>
-    <sheet name="France" sheetId="11" r:id="rId7"/>
-    <sheet name="Italy" sheetId="9" r:id="rId8"/>
-    <sheet name="United Kingdom" sheetId="12" r:id="rId9"/>
-    <sheet name="Europe" sheetId="5" r:id="rId10"/>
-    <sheet name="South Korea" sheetId="14" r:id="rId11"/>
-    <sheet name="Spain" sheetId="15" r:id="rId12"/>
-    <sheet name="Hong Kong" sheetId="16" r:id="rId13"/>
-    <sheet name="Brazil" sheetId="17" r:id="rId14"/>
-    <sheet name="Denmark" sheetId="19" r:id="rId15"/>
-    <sheet name="Sweden" sheetId="20" r:id="rId16"/>
-    <sheet name="Saudi Arabia" sheetId="21" r:id="rId17"/>
-    <sheet name="Canada" sheetId="22" r:id="rId18"/>
-    <sheet name="Australia" sheetId="23" r:id="rId19"/>
-    <sheet name="XCCY" sheetId="24" r:id="rId20"/>
-    <sheet name="Bonds" sheetId="25" r:id="rId21"/>
-    <sheet name="10Y" sheetId="28" r:id="rId22"/>
+    <sheet name="Major" sheetId="29" r:id="rId2"/>
+    <sheet name="India" sheetId="1" r:id="rId3"/>
+    <sheet name="United States" sheetId="2" r:id="rId4"/>
+    <sheet name="China" sheetId="6" r:id="rId5"/>
+    <sheet name="Japan" sheetId="4" r:id="rId6"/>
+    <sheet name="Germany" sheetId="7" r:id="rId7"/>
+    <sheet name="France" sheetId="11" r:id="rId8"/>
+    <sheet name="Italy" sheetId="9" r:id="rId9"/>
+    <sheet name="United Kingdom" sheetId="12" r:id="rId10"/>
+    <sheet name="Europe" sheetId="5" r:id="rId11"/>
+    <sheet name="South Korea" sheetId="14" r:id="rId12"/>
+    <sheet name="Spain" sheetId="15" r:id="rId13"/>
+    <sheet name="Hong Kong" sheetId="16" r:id="rId14"/>
+    <sheet name="Brazil" sheetId="17" r:id="rId15"/>
+    <sheet name="Denmark" sheetId="19" r:id="rId16"/>
+    <sheet name="Sweden" sheetId="20" r:id="rId17"/>
+    <sheet name="Saudi Arabia" sheetId="21" r:id="rId18"/>
+    <sheet name="Canada" sheetId="22" r:id="rId19"/>
+    <sheet name="Australia" sheetId="23" r:id="rId20"/>
+    <sheet name="XCCY" sheetId="24" r:id="rId21"/>
+    <sheet name="Bonds" sheetId="25" r:id="rId22"/>
+    <sheet name="10Y" sheetId="28" r:id="rId23"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="580">
   <si>
     <t>Nifty FMCG</t>
   </si>
@@ -1772,6 +1773,9 @@
   </si>
   <si>
     <t>10Y</t>
+  </si>
+  <si>
+    <t>Major</t>
   </si>
 </sst>
 </file>
@@ -2116,7 +2120,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6367,6 +6371,214 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
@@ -6983,7 +7195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -7218,7 +7430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -7404,7 +7616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7511,7 +7723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -7601,7 +7813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -7707,7 +7919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -7814,7 +8026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -8009,7 +8221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -8163,7 +8375,652 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B385"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>385</v>
+      </c>
+      <c r="B24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B25" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>391</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>393</v>
+      </c>
+      <c r="B35" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>395</v>
+      </c>
+      <c r="B36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>397</v>
+      </c>
+      <c r="B38" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>399</v>
+      </c>
+      <c r="B41" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>401</v>
+      </c>
+      <c r="B42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>403</v>
+      </c>
+      <c r="B43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>405</v>
+      </c>
+      <c r="B44" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>407</v>
+      </c>
+      <c r="B45" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>409</v>
+      </c>
+      <c r="B46" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>411</v>
+      </c>
+      <c r="B47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>413</v>
+      </c>
+      <c r="B48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>415</v>
+      </c>
+      <c r="B49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>417</v>
+      </c>
+      <c r="B50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>419</v>
+      </c>
+      <c r="B51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>421</v>
+      </c>
+      <c r="B52" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>423</v>
+      </c>
+      <c r="B53" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B54" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>427</v>
+      </c>
+      <c r="B55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>429</v>
+      </c>
+      <c r="B56" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>433</v>
+      </c>
+      <c r="B57" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>435</v>
+      </c>
+      <c r="B58" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>437</v>
+      </c>
+      <c r="B60" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -8302,175 +9159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
@@ -8903,11 +9592,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9977,7 +10666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -10162,6 +10851,174 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -10338,7 +11195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A59"/>
   <sheetViews>
@@ -10651,7 +11508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
@@ -10839,7 +11696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
@@ -10948,7 +11805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -11021,7 +11878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -11092,212 +11949,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Regional Indices.xlsx
+++ b/Regional Indices.xlsx
@@ -4,40 +4,39 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="13" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="30" r:id="rId2"/>
-    <sheet name="Major" sheetId="29" r:id="rId3"/>
-    <sheet name="India" sheetId="1" r:id="rId4"/>
-    <sheet name="United States" sheetId="2" r:id="rId5"/>
-    <sheet name="China" sheetId="6" r:id="rId6"/>
-    <sheet name="Japan" sheetId="4" r:id="rId7"/>
-    <sheet name="Germany" sheetId="7" r:id="rId8"/>
-    <sheet name="France" sheetId="11" r:id="rId9"/>
-    <sheet name="Italy" sheetId="9" r:id="rId10"/>
-    <sheet name="United Kingdom" sheetId="12" r:id="rId11"/>
-    <sheet name="Europe" sheetId="5" r:id="rId12"/>
-    <sheet name="South Korea" sheetId="14" r:id="rId13"/>
-    <sheet name="Spain" sheetId="15" r:id="rId14"/>
-    <sheet name="Hong Kong" sheetId="16" r:id="rId15"/>
-    <sheet name="Brazil" sheetId="17" r:id="rId16"/>
-    <sheet name="Denmark" sheetId="19" r:id="rId17"/>
-    <sheet name="Sweden" sheetId="20" r:id="rId18"/>
-    <sheet name="Saudi Arabia" sheetId="21" r:id="rId19"/>
-    <sheet name="Canada" sheetId="22" r:id="rId20"/>
-    <sheet name="Australia" sheetId="23" r:id="rId21"/>
-    <sheet name="XCCY" sheetId="24" r:id="rId22"/>
-    <sheet name="Bonds" sheetId="25" r:id="rId23"/>
-    <sheet name="10Y" sheetId="28" r:id="rId24"/>
+    <sheet name="Major" sheetId="29" r:id="rId2"/>
+    <sheet name="India" sheetId="1" r:id="rId3"/>
+    <sheet name="United States" sheetId="2" r:id="rId4"/>
+    <sheet name="China" sheetId="6" r:id="rId5"/>
+    <sheet name="Japan" sheetId="4" r:id="rId6"/>
+    <sheet name="Germany" sheetId="7" r:id="rId7"/>
+    <sheet name="France" sheetId="11" r:id="rId8"/>
+    <sheet name="Italy" sheetId="9" r:id="rId9"/>
+    <sheet name="United Kingdom" sheetId="12" r:id="rId10"/>
+    <sheet name="Europe" sheetId="5" r:id="rId11"/>
+    <sheet name="South Korea" sheetId="14" r:id="rId12"/>
+    <sheet name="Spain" sheetId="15" r:id="rId13"/>
+    <sheet name="Hong Kong" sheetId="16" r:id="rId14"/>
+    <sheet name="Brazil" sheetId="17" r:id="rId15"/>
+    <sheet name="Denmark" sheetId="19" r:id="rId16"/>
+    <sheet name="Sweden" sheetId="20" r:id="rId17"/>
+    <sheet name="Saudi Arabia" sheetId="21" r:id="rId18"/>
+    <sheet name="Canada" sheetId="22" r:id="rId19"/>
+    <sheet name="Australia" sheetId="23" r:id="rId20"/>
+    <sheet name="XCCY" sheetId="24" r:id="rId21"/>
+    <sheet name="Bonds" sheetId="25" r:id="rId22"/>
+    <sheet name="10Y" sheetId="28" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="580">
   <si>
     <t>Nifty FMCG</t>
   </si>
@@ -2123,7 +2122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6373,79 +6374,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
@@ -6653,7 +6581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
@@ -7270,7 +7198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -7505,7 +7433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -7691,7 +7619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7798,7 +7726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -7888,7 +7816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -7994,7 +7922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -8101,7 +8029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -8296,21 +8224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C366"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -8464,7 +8378,833 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C385"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C19" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>385</v>
+      </c>
+      <c r="B24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C25" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C28" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" t="s">
+        <v>390</v>
+      </c>
+      <c r="C29" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>391</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>393</v>
+      </c>
+      <c r="B35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C35" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>395</v>
+      </c>
+      <c r="B36" t="s">
+        <v>396</v>
+      </c>
+      <c r="C36" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>397</v>
+      </c>
+      <c r="B38" t="s">
+        <v>398</v>
+      </c>
+      <c r="C38" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>399</v>
+      </c>
+      <c r="B41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C41" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>401</v>
+      </c>
+      <c r="B42" t="s">
+        <v>402</v>
+      </c>
+      <c r="C42" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>403</v>
+      </c>
+      <c r="B43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>405</v>
+      </c>
+      <c r="B44" t="s">
+        <v>406</v>
+      </c>
+      <c r="C44" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>407</v>
+      </c>
+      <c r="B45" t="s">
+        <v>408</v>
+      </c>
+      <c r="C45" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>409</v>
+      </c>
+      <c r="B46" t="s">
+        <v>410</v>
+      </c>
+      <c r="C46" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>411</v>
+      </c>
+      <c r="B47" t="s">
+        <v>412</v>
+      </c>
+      <c r="C47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>413</v>
+      </c>
+      <c r="B48" t="s">
+        <v>414</v>
+      </c>
+      <c r="C48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>415</v>
+      </c>
+      <c r="B49" t="s">
+        <v>416</v>
+      </c>
+      <c r="C49" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>417</v>
+      </c>
+      <c r="B50" t="s">
+        <v>418</v>
+      </c>
+      <c r="C50" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>419</v>
+      </c>
+      <c r="B51" t="s">
+        <v>420</v>
+      </c>
+      <c r="C51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>421</v>
+      </c>
+      <c r="B52" t="s">
+        <v>422</v>
+      </c>
+      <c r="C52" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>423</v>
+      </c>
+      <c r="B53" t="s">
+        <v>424</v>
+      </c>
+      <c r="C53" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B54" t="s">
+        <v>426</v>
+      </c>
+      <c r="C54" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>427</v>
+      </c>
+      <c r="B55" t="s">
+        <v>428</v>
+      </c>
+      <c r="C55" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>429</v>
+      </c>
+      <c r="B56" t="s">
+        <v>430</v>
+      </c>
+      <c r="C56" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>433</v>
+      </c>
+      <c r="B57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C57" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>435</v>
+      </c>
+      <c r="B58" t="s">
+        <v>436</v>
+      </c>
+      <c r="C58" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>437</v>
+      </c>
+      <c r="B60" t="s">
+        <v>438</v>
+      </c>
+      <c r="C60" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -8603,7 +9343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
@@ -9036,7 +9776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C96"/>
   <sheetViews>
@@ -10110,7 +10850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -10295,651 +11035,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B385"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>273</v>
-      </c>
-      <c r="B15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>373</v>
-      </c>
-      <c r="B16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>375</v>
-      </c>
-      <c r="B17" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>377</v>
-      </c>
-      <c r="B18" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>305</v>
-      </c>
-      <c r="B19" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>379</v>
-      </c>
-      <c r="B20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>380</v>
-      </c>
-      <c r="B21" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>382</v>
-      </c>
-      <c r="B22" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>383</v>
-      </c>
-      <c r="B23" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>385</v>
-      </c>
-      <c r="B24" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>387</v>
-      </c>
-      <c r="B25" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>355</v>
-      </c>
-      <c r="B28" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>389</v>
-      </c>
-      <c r="B29" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>391</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>392</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>276</v>
-      </c>
-      <c r="B34" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>393</v>
-      </c>
-      <c r="B35" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>395</v>
-      </c>
-      <c r="B36" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>226</v>
-      </c>
-      <c r="B37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>397</v>
-      </c>
-      <c r="B38" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>399</v>
-      </c>
-      <c r="B41" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>401</v>
-      </c>
-      <c r="B42" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>403</v>
-      </c>
-      <c r="B43" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>405</v>
-      </c>
-      <c r="B44" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>407</v>
-      </c>
-      <c r="B45" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>409</v>
-      </c>
-      <c r="B46" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>411</v>
-      </c>
-      <c r="B47" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>413</v>
-      </c>
-      <c r="B48" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>415</v>
-      </c>
-      <c r="B49" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>417</v>
-      </c>
-      <c r="B50" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>419</v>
-      </c>
-      <c r="B51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>421</v>
-      </c>
-      <c r="B52" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>423</v>
-      </c>
-      <c r="B53" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>425</v>
-      </c>
-      <c r="B54" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>427</v>
-      </c>
-      <c r="B55" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>429</v>
-      </c>
-      <c r="B56" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>433</v>
-      </c>
-      <c r="B57" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>435</v>
-      </c>
-      <c r="B58" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>251</v>
-      </c>
-      <c r="B59" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>437</v>
-      </c>
-      <c r="B60" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="1"/>
-      <c r="B349" s="1"/>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="1"/>
-      <c r="B350" s="1"/>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="1"/>
-      <c r="B353" s="1"/>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="1"/>
-      <c r="B356" s="1"/>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="1"/>
-      <c r="B357" s="1"/>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="1"/>
-      <c r="B358" s="1"/>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="1"/>
-      <c r="B360" s="1"/>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="1"/>
-      <c r="B361" s="1"/>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="1"/>
-      <c r="B362" s="1"/>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="1"/>
-      <c r="B363" s="1"/>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="1"/>
-      <c r="B364" s="1"/>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="1"/>
-      <c r="B365" s="1"/>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="1"/>
-      <c r="B366" s="1"/>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="1"/>
-      <c r="B367" s="1"/>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="1"/>
-      <c r="B368" s="1"/>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="1"/>
-      <c r="B369" s="1"/>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="1"/>
-      <c r="B370" s="1"/>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="1"/>
-      <c r="B371" s="1"/>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="1"/>
-      <c r="B372" s="1"/>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="1"/>
-      <c r="B373" s="1"/>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="1"/>
-      <c r="B374" s="1"/>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="1"/>
-      <c r="B375" s="1"/>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="1"/>
-      <c r="B376" s="1"/>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="1"/>
-      <c r="B377" s="1"/>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="1"/>
-      <c r="B378" s="1"/>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="1"/>
-      <c r="B379" s="1"/>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="1"/>
-      <c r="B380" s="1"/>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="1"/>
-      <c r="B381" s="1"/>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="1"/>
-      <c r="B382" s="1"/>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="1"/>
-      <c r="B383" s="1"/>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="1"/>
-      <c r="B384" s="1"/>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="1"/>
-      <c r="B385" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11108,7 +11203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
@@ -11286,7 +11381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A59"/>
   <sheetViews>
@@ -11599,7 +11694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
@@ -11787,7 +11882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
@@ -11896,7 +11991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -11967,4 +12062,77 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Regional Indices.xlsx
+++ b/Regional Indices.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="618">
   <si>
     <t>Nifty FMCG</t>
   </si>
@@ -1776,6 +1776,120 @@
   </si>
   <si>
     <t>Major</t>
+  </si>
+  <si>
+    <t>USD/CAD</t>
+  </si>
+  <si>
+    <t>USD/BRL</t>
+  </si>
+  <si>
+    <t>USD/MXN</t>
+  </si>
+  <si>
+    <t>USD/EUR</t>
+  </si>
+  <si>
+    <t>USD/GBP</t>
+  </si>
+  <si>
+    <t>USD/CHF</t>
+  </si>
+  <si>
+    <t>USD/SEK</t>
+  </si>
+  <si>
+    <t>USD/DKK</t>
+  </si>
+  <si>
+    <t>USD/RUB</t>
+  </si>
+  <si>
+    <t>USD/PLN</t>
+  </si>
+  <si>
+    <t>USD/HUF</t>
+  </si>
+  <si>
+    <t>USD/TRY</t>
+  </si>
+  <si>
+    <t>USD/SAR</t>
+  </si>
+  <si>
+    <t>USD/JPY</t>
+  </si>
+  <si>
+    <t>USD/AUD</t>
+  </si>
+  <si>
+    <t>USD/NZD</t>
+  </si>
+  <si>
+    <t>USD/CNY</t>
+  </si>
+  <si>
+    <t>USD/HKD</t>
+  </si>
+  <si>
+    <t>USD/TWD</t>
+  </si>
+  <si>
+    <t>USD/THB</t>
+  </si>
+  <si>
+    <t>USD/KRW</t>
+  </si>
+  <si>
+    <t>USD/IDR</t>
+  </si>
+  <si>
+    <t>USD/INR</t>
+  </si>
+  <si>
+    <t>USD/PHP</t>
+  </si>
+  <si>
+    <t>USD/PKR</t>
+  </si>
+  <si>
+    <t>USD/VND</t>
+  </si>
+  <si>
+    <t>USD/BHD</t>
+  </si>
+  <si>
+    <t>USD/BGN</t>
+  </si>
+  <si>
+    <t>USD/CLP</t>
+  </si>
+  <si>
+    <t>USD/COP</t>
+  </si>
+  <si>
+    <t>USD/CZK</t>
+  </si>
+  <si>
+    <t>USD/EGP</t>
+  </si>
+  <si>
+    <t>USD/MYR</t>
+  </si>
+  <si>
+    <t>USD/OMR</t>
+  </si>
+  <si>
+    <t>USD/PEN</t>
+  </si>
+  <si>
+    <t>USD/SGD</t>
+  </si>
+  <si>
+    <t>USD/ZAR</t>
+  </si>
+  <si>
+    <t>USD/TND</t>
   </si>
 </sst>
 </file>
@@ -8380,7 +8494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C385"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8410,7 +8524,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -8421,7 +8535,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -8432,7 +8546,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -8443,7 +8557,7 @@
         <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8454,7 +8568,7 @@
         <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -8465,7 +8579,7 @@
         <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -8476,7 +8590,7 @@
         <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>443</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -8487,7 +8601,7 @@
         <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>444</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -8498,7 +8612,7 @@
         <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>443</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -8509,7 +8623,7 @@
         <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>443</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -8520,7 +8634,7 @@
         <v>372</v>
       </c>
       <c r="C12" t="s">
-        <v>443</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -8531,7 +8645,7 @@
         <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>443</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -8542,7 +8656,7 @@
         <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>443</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -8553,7 +8667,7 @@
         <v>274</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -8564,7 +8678,7 @@
         <v>374</v>
       </c>
       <c r="C16" t="s">
-        <v>443</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -8575,7 +8689,7 @@
         <v>376</v>
       </c>
       <c r="C17" t="s">
-        <v>443</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -8586,7 +8700,7 @@
         <v>378</v>
       </c>
       <c r="C18" t="s">
-        <v>443</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -8597,7 +8711,7 @@
         <v>304</v>
       </c>
       <c r="C19" t="s">
-        <v>446</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8608,7 +8722,7 @@
         <v>303</v>
       </c>
       <c r="C20" t="s">
-        <v>447</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8619,585 +8733,404 @@
         <v>381</v>
       </c>
       <c r="C21" t="s">
-        <v>448</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B22" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C22" t="s">
-        <v>448</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B23" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C23" t="s">
-        <v>449</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C24" t="s">
-        <v>450</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="B25" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="C25" t="s">
-        <v>451</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>315</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>336</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>452</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>355</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>354</v>
       </c>
       <c r="C27" t="s">
-        <v>453</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="B28" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="C28" t="s">
-        <v>454</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>389</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>390</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>455</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>391</v>
       </c>
       <c r="B30" t="s">
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>456</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="C31" t="s">
-        <v>456</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>394</v>
       </c>
       <c r="C32" t="s">
-        <v>456</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>396</v>
       </c>
       <c r="C33" t="s">
-        <v>456</v>
+        <v>599</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="C34" t="s">
-        <v>457</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B35" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C35" t="s">
-        <v>458</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>395</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>396</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>459</v>
+        <v>602</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>460</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B38" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s">
-        <v>461</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>401</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>402</v>
       </c>
       <c r="C39" t="s">
-        <v>462</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>404</v>
       </c>
       <c r="C40" t="s">
-        <v>462</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C41" t="s">
-        <v>463</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B42" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C42" t="s">
-        <v>464</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B43" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C43" t="s">
-        <v>465</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B44" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C44" t="s">
-        <v>466</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B45" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C45" t="s">
-        <v>467</v>
+        <v>583</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B46" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C46" t="s">
-        <v>468</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B47" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C47" t="s">
-        <v>469</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B48" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C48" t="s">
-        <v>443</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B49" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C49" t="s">
-        <v>470</v>
+        <v>583</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B50" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C50" t="s">
-        <v>471</v>
+        <v>583</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B51" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C51" t="s">
-        <v>443</v>
+        <v>612</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B52" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C52" t="s">
-        <v>443</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B53" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C53" t="s">
-        <v>443</v>
+        <v>614</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B54" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C54" t="s">
-        <v>472</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C55" t="s">
-        <v>473</v>
+        <v>616</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>429</v>
+        <v>251</v>
       </c>
       <c r="B56" t="s">
-        <v>430</v>
+        <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>474</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B57" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C57" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>435</v>
-      </c>
-      <c r="B58" t="s">
-        <v>436</v>
-      </c>
-      <c r="C58" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>251</v>
-      </c>
-      <c r="B59" t="s">
-        <v>225</v>
-      </c>
-      <c r="C59" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>437</v>
-      </c>
-      <c r="B60" t="s">
-        <v>438</v>
-      </c>
-      <c r="C60" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="1"/>
-      <c r="B349" s="1"/>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="1"/>
-      <c r="B350" s="1"/>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="1"/>
-      <c r="B353" s="1"/>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="1"/>
-      <c r="B356" s="1"/>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="1"/>
-      <c r="B357" s="1"/>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="1"/>
-      <c r="B358" s="1"/>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="1"/>
-      <c r="B360" s="1"/>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="1"/>
-      <c r="B361" s="1"/>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="1"/>
-      <c r="B362" s="1"/>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="1"/>
-      <c r="B363" s="1"/>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="1"/>
-      <c r="B364" s="1"/>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="1"/>
-      <c r="B365" s="1"/>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="1"/>
-      <c r="B366" s="1"/>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="1"/>
-      <c r="B367" s="1"/>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="1"/>
-      <c r="B368" s="1"/>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="1"/>
-      <c r="B369" s="1"/>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="1"/>
-      <c r="B370" s="1"/>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="1"/>
-      <c r="B371" s="1"/>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="1"/>
-      <c r="B372" s="1"/>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="1"/>
-      <c r="B373" s="1"/>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="1"/>
-      <c r="B374" s="1"/>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="1"/>
-      <c r="B375" s="1"/>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="1"/>
-      <c r="B376" s="1"/>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="1"/>
-      <c r="B377" s="1"/>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="1"/>
-      <c r="B378" s="1"/>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="1"/>
-      <c r="B379" s="1"/>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="1"/>
-      <c r="B380" s="1"/>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="1"/>
-      <c r="B381" s="1"/>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="1"/>
-      <c r="B382" s="1"/>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="1"/>
-      <c r="B383" s="1"/>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="1"/>
-      <c r="B384" s="1"/>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="1"/>
-      <c r="B385" s="1"/>
+        <v>617</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
